--- a/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03532CB-7855-8948-B3EA-0FD9F8427B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="2980" windowWidth="26540" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="2985" windowWidth="26535" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -52,9 +51,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -109,7 +108,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,22 +422,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,12 +451,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -466,12 +465,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -480,12 +479,12 @@
         <v>0.15529999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -494,12 +493,12 @@
         <v>0.11210000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -508,12 +507,12 @@
         <v>0.18729999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -522,12 +521,12 @@
         <v>0.1221</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -536,12 +535,12 @@
         <v>0.19339999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -550,12 +549,12 @@
         <v>0.2298</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -564,12 +563,12 @@
         <v>0.35709999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -578,12 +577,12 @@
         <v>0.1429</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -592,12 +591,12 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -606,12 +605,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -620,12 +619,12 @@
         <v>0.17860000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -634,12 +633,12 @@
         <v>0.37030000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -648,12 +647,12 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -662,12 +661,12 @@
         <v>0.28260000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -676,12 +675,12 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -690,12 +689,12 @@
         <v>3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -704,12 +703,12 @@
         <v>5.5399999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -718,12 +717,12 @@
         <v>3.61E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -732,12 +731,12 @@
         <v>5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -746,12 +745,12 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5</v>
       </c>
       <c r="B23" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -760,12 +759,12 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -774,12 +773,12 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -788,12 +787,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>7</v>
       </c>
       <c r="B26" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -802,12 +801,12 @@
         <v>0.23250000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>7</v>
       </c>
       <c r="B27" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -816,12 +815,12 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>7</v>
       </c>
       <c r="B28" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -830,12 +829,12 @@
         <v>0.23250000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>8</v>
       </c>
       <c r="B29" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -844,12 +843,12 @@
         <v>0.66710000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8</v>
       </c>
       <c r="B30" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -858,12 +857,12 @@
         <v>0.33289999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -872,12 +871,12 @@
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -886,12 +885,12 @@
         <v>0.16020000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>9</v>
       </c>
       <c r="B33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -900,12 +899,12 @@
         <v>0.1167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>9</v>
       </c>
       <c r="B34" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -914,12 +913,12 @@
         <v>0.20810000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>9</v>
       </c>
       <c r="B35" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -928,12 +927,12 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>9</v>
       </c>
       <c r="B36" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -942,12 +941,12 @@
         <v>0.20469999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>9</v>
       </c>
       <c r="B37" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -956,12 +955,12 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>9</v>
       </c>
       <c r="B38" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -970,12 +969,12 @@
         <v>0.11459999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>9</v>
       </c>
       <c r="B39" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -984,12 +983,12 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>10</v>
       </c>
       <c r="B40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -998,12 +997,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>11</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -1012,12 +1011,12 @@
         <v>0.26119999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>11</v>
       </c>
       <c r="B42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
@@ -1026,12 +1025,12 @@
         <v>0.4597</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>11</v>
       </c>
       <c r="B43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
@@ -1040,12 +1039,12 @@
         <v>6.6900000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>11</v>
       </c>
       <c r="B44" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
@@ -1054,12 +1053,12 @@
         <v>0.1195</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>11</v>
       </c>
       <c r="B45" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
@@ -1068,12 +1067,12 @@
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>12</v>
       </c>
       <c r="B46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
@@ -1082,12 +1081,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>13</v>
       </c>
       <c r="B47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
@@ -1096,12 +1095,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>14</v>
       </c>
       <c r="B48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -1110,12 +1109,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>15</v>
       </c>
       <c r="B49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>4</v>
@@ -1124,12 +1123,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>16</v>
       </c>
       <c r="B50" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
@@ -1138,12 +1137,12 @@
         <v>0.53046670162558995</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>16</v>
       </c>
       <c r="B51" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
@@ -1152,12 +1151,12 @@
         <v>0.22338751966439432</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>16</v>
       </c>
       <c r="B52" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
@@ -1166,12 +1165,12 @@
         <v>0.24614577871001572</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>17</v>
       </c>
       <c r="B53" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
@@ -1180,12 +1179,12 @@
         <v>0.18529999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>17</v>
       </c>
       <c r="B54" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -1194,12 +1193,12 @@
         <v>0.14419999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>17</v>
       </c>
       <c r="B55" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
@@ -1208,12 +1207,12 @@
         <v>0.10390000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>17</v>
       </c>
       <c r="B56" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -1222,12 +1221,12 @@
         <v>0.17380000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>17</v>
       </c>
       <c r="B57" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -1236,12 +1235,12 @@
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>17</v>
       </c>
       <c r="B58" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -1256,6 +1255,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4511c60809de47fd61668c7a2fa421c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="113b7667aea05225525c2a1f4252ac59" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1460,27 +1479,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8BF163-7E87-4B8A-965E-CB930C72B92B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D125F7-70BC-4CD8-BA77-1F77C7034327}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1497,23 +1515,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8BF163-7E87-4B8A-965E-CB930C72B92B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="5">
   <si>
     <t>ID_Activity</t>
   </si>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,153 +470,153 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>0.15529999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>0.11210000000000001</v>
+        <v>0.35709999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.18729999999999999</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1221</v>
+        <v>7.1400000000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>0.19339999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2298</v>
+        <v>0.17860000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>0.35709999999999997</v>
+        <v>0.37030000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>0.1429</v>
+        <v>6.0199999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>7.1400000000000005E-2</v>
+        <v>0.28260000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>0.25</v>
+        <v>3.7100000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>0.17860000000000001</v>
+        <v>3.3099999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -624,13 +624,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>0.37030000000000002</v>
+        <v>5.5399999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -638,13 +638,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>6.0199999999999997E-2</v>
+        <v>3.61E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2">
-        <v>0.28260000000000002</v>
+        <v>5.7200000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -666,195 +666,195 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2">
-        <v>3.7100000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>3.3099999999999997E-2</v>
+        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>5.5399999999999998E-2</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>3.61E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>0.23250000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>0.76600000000000001</v>
+        <v>0.23250000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>0.23400000000000001</v>
+        <v>0.66710000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0.33289999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>0.23250000000000001</v>
+        <v>9.11E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>0.53500000000000003</v>
+        <v>0.16020000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>0.23250000000000001</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>0.66710000000000003</v>
+        <v>0.20810000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>0.33289999999999997</v>
+        <v>4.07E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -862,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>9.11E-2</v>
+        <v>0.20469999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="2">
-        <v>0.16020000000000001</v>
+        <v>1.04E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -890,13 +890,13 @@
         <v>9</v>
       </c>
       <c r="B33" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="2">
-        <v>0.1167</v>
+        <v>0.11459999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -904,265 +904,265 @@
         <v>9</v>
       </c>
       <c r="B34" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="2">
-        <v>0.20810000000000001</v>
+        <v>5.3499999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2">
-        <v>4.07E-2</v>
+      <c r="D35" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2">
-        <v>0.20469999999999999</v>
+        <v>0.26119999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="2">
-        <v>1.04E-2</v>
+        <v>0.4597</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2">
-        <v>0.11459999999999999</v>
+        <v>6.6900000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="2">
-        <v>5.3499999999999999E-2</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>10</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B40" s="2">
+        <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
+      <c r="D40" s="2">
+        <v>9.2700000000000005E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>11</v>
-      </c>
-      <c r="B41" s="2">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="2">
-        <v>0.26119999999999999</v>
+      <c r="D41" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>11</v>
-      </c>
-      <c r="B42" s="2">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="2">
-        <v>0.4597</v>
+      <c r="D42" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>11</v>
-      </c>
-      <c r="B43" s="2">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="2">
-        <v>6.6900000000000001E-2</v>
+      <c r="D43" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>11</v>
-      </c>
-      <c r="B44" s="2">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="2">
-        <v>0.1195</v>
+      <c r="D44" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B45" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="2">
-        <v>9.2700000000000005E-2</v>
+      <c r="D45" s="4">
+        <v>0.53046670162558995</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>12</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B46" s="2">
+        <v>35</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="3">
-        <v>1</v>
+      <c r="D46" s="4">
+        <v>0.22338751966439432</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>13</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B47" s="2">
+        <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="3">
-        <v>1</v>
+      <c r="D47" s="4">
+        <v>0.24614577871001572</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>14</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="3">
-        <v>1</v>
+      <c r="D48" s="2">
+        <v>0.18529999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>15</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B49" s="2">
+        <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="3">
-        <v>1</v>
+      <c r="D49" s="2">
+        <v>0.14419999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="4">
-        <v>0.53046670162558995</v>
+      <c r="D50" s="2">
+        <v>0.10390000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B51" s="2">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="4">
-        <v>0.22338751966439432</v>
+      <c r="D51" s="2">
+        <v>0.17380000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="4">
-        <v>0.24614577871001572</v>
+      <c r="D52" s="2">
+        <v>0.17949999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1170,82 +1170,12 @@
         <v>17</v>
       </c>
       <c r="B53" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="2">
-        <v>0.18529999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>17</v>
-      </c>
-      <c r="B54" s="2">
-        <v>14</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0.14419999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>17</v>
-      </c>
-      <c r="B55" s="2">
-        <v>17</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0.10390000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>17</v>
-      </c>
-      <c r="B56" s="2">
-        <v>18</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.17380000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>17</v>
-      </c>
-      <c r="B57" s="2">
-        <v>20</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0.17949999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>17</v>
-      </c>
-      <c r="B58" s="2">
-        <v>21</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="2">
         <v>0.21329999999999999</v>
       </c>
     </row>
@@ -1255,26 +1185,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4511c60809de47fd61668c7a2fa421c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="113b7667aea05225525c2a1f4252ac59" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1479,10 +1389,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D125F7-70BC-4CD8-BA77-1F77C7034327}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1499,20 +1440,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D125F7-70BC-4CD8-BA77-1F77C7034327}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8E496D-6BEE-0D40-B5BA-09C0361F764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2985" windowWidth="26535" windowHeight="13095"/>
+    <workbookView xWindow="6100" yWindow="-28300" windowWidth="17060" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="5">
   <si>
     <t>ID_Activity</t>
   </si>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -103,12 +105,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,22 +425,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -465,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -479,625 +482,640 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>0.35709999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.1429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>7.1400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.1429</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.17860000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.37030000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
         <v>6.0199999999999997E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.28260000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
         <v>3.7100000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
         <v>3.3099999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
         <v>5.5399999999999998E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
         <v>3.61E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
         <v>5.7200000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
         <v>21</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B20" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21" s="2">
         <v>25</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
         <v>30</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>7</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.23250000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.20250000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>7</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.53500000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.23250000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.20250000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B28" s="2">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.66710000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>8</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B29" s="2">
         <v>33</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.33289999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>9.11E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.16020000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.1167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>9</v>
-      </c>
-      <c r="B29" s="2">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.20810000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>9</v>
       </c>
       <c r="B30" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>4.07E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.11E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>0.20469999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.16020000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="2">
-        <v>1.04E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.1167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>9</v>
       </c>
       <c r="B33" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="2">
-        <v>0.11459999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20810000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>9</v>
       </c>
       <c r="B34" s="2">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4.07E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.20469999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.11459999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
         <v>10</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>10</v>
       </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>11</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.26119999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>11</v>
-      </c>
-      <c r="B37" s="2">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.4597</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2">
-        <v>6.6900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>11</v>
-      </c>
-      <c r="B39" s="2">
-        <v>5</v>
+      <c r="B39" s="3">
+        <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="2">
-        <v>0.1195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>11</v>
       </c>
       <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.26119999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.4597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>11</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>6.6900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.1195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2">
         <v>6</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>12</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>13</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>15</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>16</v>
-      </c>
       <c r="B45" s="2">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="4">
-        <v>0.53046670162558995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D45" s="2">
+        <v>0.26119999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="4">
-        <v>0.22338751966439432</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D46" s="2">
+        <v>0.4597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="4">
-        <v>0.24614577871001572</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D47" s="2">
+        <v>6.6900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B48" s="2">
         <v>5</v>
@@ -1106,77 +1124,218 @@
         <v>4</v>
       </c>
       <c r="D48" s="2">
-        <v>0.18529999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.1195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>9.2700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>13</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>15</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>16</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>16</v>
+      </c>
+      <c r="B54" s="2">
+        <v>34</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>16</v>
+      </c>
+      <c r="B55" s="2">
+        <v>35</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.18338751966439401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2">
+        <v>36</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.20561457787100099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>17</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>17</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.23530000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>17</v>
+      </c>
+      <c r="B59" s="2">
         <v>14</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.14419999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="C59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.1042</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>17</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B60" s="2">
         <v>17</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.10390000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="C60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>9.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>17</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B61" s="2">
         <v>18</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.17380000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="C61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>9.3799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>17</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B62" s="2">
         <v>20</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0.17949999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="C62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.16950000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>17</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B63" s="2">
         <v>21</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0.21329999999999999</v>
+      <c r="C63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.20330000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/PycharmProjects/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8E496D-6BEE-0D40-B5BA-09C0361F764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B6688-08BE-EE40-A9A1-98F6D8CB8536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="-28300" windowWidth="17060" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10960" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,18 +79,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,11 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -428,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -991,13 +984,13 @@
       <c r="A39" s="2">
         <v>10</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>1</v>
       </c>
     </row>
@@ -1145,13 +1138,13 @@
       <c r="A50" s="2">
         <v>13</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>1</v>
       </c>
     </row>
@@ -1159,13 +1152,13 @@
       <c r="A51" s="2">
         <v>14</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>1</v>
       </c>
     </row>
@@ -1173,13 +1166,13 @@
       <c r="A52" s="2">
         <v>15</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>1</v>
       </c>
     </row>
@@ -1187,16 +1180,16 @@
       <c r="A53" s="2">
         <v>16</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>0.1</v>
       </c>
-      <c r="G53" s="5"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
@@ -1208,7 +1201,7 @@
       <c r="C54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>0.51100000000000001</v>
       </c>
     </row>
@@ -1222,7 +1215,7 @@
       <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>0.18338751966439401</v>
       </c>
     </row>
@@ -1236,7 +1229,7 @@
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>0.20561457787100099</v>
       </c>
     </row>
@@ -1250,7 +1243,7 @@
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -1549,6 +1542,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
@@ -1557,15 +1559,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1588,6 +1581,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8BF163-7E87-4B8A-965E-CB930C72B92B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1596,12 +1597,4 @@
     <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/PycharmProjects/FLEX/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B6688-08BE-EE40-A9A1-98F6D8CB8536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8E496D-6BEE-0D40-B5BA-09C0361F764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10960" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6100" yWindow="-28300" windowWidth="17060" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,12 +79,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,10 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -421,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -984,13 +991,13 @@
       <c r="A39" s="2">
         <v>10</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1138,13 +1145,13 @@
       <c r="A50" s="2">
         <v>13</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1152,13 +1159,13 @@
       <c r="A51" s="2">
         <v>14</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1166,13 +1173,13 @@
       <c r="A52" s="2">
         <v>15</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1180,16 +1187,16 @@
       <c r="A53" s="2">
         <v>16</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>0.1</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
@@ -1201,7 +1208,7 @@
       <c r="C54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="4">
         <v>0.51100000000000001</v>
       </c>
     </row>
@@ -1215,7 +1222,7 @@
       <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="4">
         <v>0.18338751966439401</v>
       </c>
     </row>
@@ -1229,7 +1236,7 @@
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="4">
         <v>0.20561457787100099</v>
       </c>
     </row>
@@ -1243,7 +1250,7 @@
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="4">
         <v>0.1</v>
       </c>
     </row>
@@ -1542,15 +1549,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
@@ -1559,6 +1557,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1581,14 +1588,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8BF163-7E87-4B8A-965E-CB930C72B92B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1597,4 +1596,12 @@
     <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8E496D-6BEE-0D40-B5BA-09C0361F764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404BE81A-7F2C-684D-BD0B-493C01413E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="-28300" windowWidth="17060" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="1600" windowWidth="15480" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="5">
   <si>
     <t>ID_Activity</t>
   </si>
@@ -54,8 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -105,18 +105,130 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -127,6 +239,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DEDA1C4-9DD0-5445-B0A4-9BFEFCA653EF}" name="Table1" displayName="Table1" ref="A1:D66" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D66" xr:uid="{5DEDA1C4-9DD0-5445-B0A4-9BFEFCA653EF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D13772B6-3362-0E4E-85D9-C4A4391AA10A}" name="ID_Activity" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A6DBB581-D6B6-FE40-937D-2BF0BA88D4B1}" name="ID_Technology" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F9119B0B-9224-EB44-81C8-9DCF13DF9ACF}" name="unit" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2A55CE27-10B7-C34C-9D5F-003A55ECA7D3}" name="value" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,15 +551,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
@@ -464,7 +589,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -478,7 +603,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -492,8 +617,8 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.1</v>
+      <c r="D4" s="4">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -501,13 +626,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.35709999999999997</v>
+      <c r="D5" s="4">
+        <v>7.9355555555555554E-2</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -516,13 +641,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.1429</v>
+      <c r="D6" s="4">
+        <v>3.1755555555555558E-2</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -531,13 +656,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>7.1400000000000005E-2</v>
+      <c r="D7" s="4">
+        <v>1.5866666666666668E-2</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -546,13 +671,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.2</v>
+      <c r="D8" s="4">
+        <v>4.4444444444444453E-2</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -561,13 +686,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.12859999999999999</v>
+      <c r="D9" s="4">
+        <v>2.8577777777777778E-2</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -581,8 +706,8 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.1</v>
+      <c r="D10" s="4">
+        <v>0.5</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -596,8 +721,8 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.30030000000000001</v>
+      <c r="D11" s="4">
+        <v>0.16683333333333333</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -611,8 +736,8 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2">
-        <v>6.0199999999999997E-2</v>
+      <c r="D12" s="4">
+        <v>3.3444444444444443E-2</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -626,8 +751,8 @@
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
-        <v>0.25259999999999999</v>
+      <c r="D13" s="4">
+        <v>0.14033333333333334</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -641,8 +766,8 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
-        <v>3.7100000000000001E-2</v>
+      <c r="D14" s="4">
+        <v>2.0611111111111111E-2</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -656,8 +781,8 @@
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
-        <v>3.3099999999999997E-2</v>
+      <c r="D15" s="4">
+        <v>1.8388888888888889E-2</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -671,8 +796,8 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="2">
-        <v>5.5399999999999998E-2</v>
+      <c r="D16" s="4">
+        <v>3.0777777777777775E-2</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -686,8 +811,8 @@
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2">
-        <v>3.61E-2</v>
+      <c r="D17" s="4">
+        <v>2.0055555555555556E-2</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -701,8 +826,8 @@
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2">
-        <v>5.7200000000000001E-2</v>
+      <c r="D18" s="4">
+        <v>3.177777777777778E-2</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -716,8 +841,8 @@
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="2">
-        <v>6.8000000000000005E-2</v>
+      <c r="D19" s="4">
+        <v>3.7777777777777778E-2</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -726,41 +851,42 @@
         <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2">
-        <v>0.76600000000000001</v>
-      </c>
+      <c r="D20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="2">
-        <v>0.23400000000000001</v>
+      <c r="D21" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
-        <v>0.1</v>
+      <c r="D22" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -768,26 +894,26 @@
         <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>0.1</v>
       </c>
     </row>
@@ -796,13 +922,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2">
-        <v>0.20250000000000001</v>
+      <c r="D25" s="4">
+        <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -810,27 +936,27 @@
         <v>7</v>
       </c>
       <c r="B26" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2">
-        <v>0.495</v>
+      <c r="D26" s="4">
+        <v>0.35</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="2">
-        <v>0.20250000000000001</v>
+      <c r="D27" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -838,13 +964,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="2">
-        <v>0.66710000000000003</v>
+      <c r="D28" s="4">
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -852,13 +978,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="2">
-        <v>0.33289999999999997</v>
+      <c r="D29" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -866,265 +992,267 @@
         <v>9</v>
       </c>
       <c r="B30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="2">
-        <v>9.11E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="D30" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="2">
-        <v>0.16020000000000001</v>
-      </c>
+      <c r="D31" s="4">
+        <v>5.2839999999999998E-2</v>
+      </c>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="2">
-        <v>0.1167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D32" s="4">
+        <v>6.4080000000000012E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>9</v>
       </c>
       <c r="B33" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="2">
-        <v>0.20810000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D33" s="4">
+        <v>4.6679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>9</v>
       </c>
       <c r="B34" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="2">
-        <v>4.07E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D34" s="4">
+        <v>8.3240000000000008E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>9</v>
       </c>
       <c r="B35" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2">
-        <v>0.20469999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D35" s="4">
+        <v>1.6279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>9</v>
       </c>
       <c r="B36" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="2">
-        <v>1.04E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D36" s="4">
+        <v>8.1880000000000008E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>9</v>
       </c>
       <c r="B37" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="2">
-        <v>0.11459999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D37" s="4">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>9</v>
       </c>
       <c r="B38" s="2">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4.5839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
         <v>10</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2">
-        <v>5.3499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>10</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>11</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2</v>
+      <c r="B40" s="3">
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="2">
-        <v>0.26119999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>11</v>
       </c>
-      <c r="B41" s="2">
-        <v>3</v>
+      <c r="B41" s="3">
+        <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="2">
-        <v>0.4597</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D41" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>11</v>
       </c>
       <c r="B42" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="2">
-        <v>6.6900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D42" s="4">
+        <v>0.20896000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>11</v>
       </c>
       <c r="B43" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="2">
-        <v>0.1195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D43" s="4">
+        <v>0.36776000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>11</v>
       </c>
       <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
+        <v>5.3520000000000005E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>11</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4">
+        <v>9.5600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>11</v>
+      </c>
+      <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="2">
-        <v>9.2700000000000005E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>12</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.26119999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>12</v>
-      </c>
-      <c r="B46" s="2">
-        <v>3</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="2">
-        <v>0.4597</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D46" s="4">
+        <v>7.4160000000000004E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>12</v>
       </c>
       <c r="B47" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="2">
-        <v>6.6900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D47" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>12</v>
       </c>
       <c r="B48" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="2">
-        <v>0.1195</v>
+      <c r="D48" s="4">
+        <v>0.13059999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1132,60 +1260,60 @@
         <v>12</v>
       </c>
       <c r="B49" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="2">
-        <v>9.2700000000000005E-2</v>
+      <c r="D49" s="4">
+        <v>0.22985</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>13</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="3">
-        <v>1</v>
+      <c r="D50" s="4">
+        <v>3.3450000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>14</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="3">
-        <v>1</v>
+      <c r="D51" s="4">
+        <v>5.9749999999999998E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>15</v>
-      </c>
-      <c r="B52" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B52" s="2">
+        <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
+      <c r="D52" s="4">
+        <v>4.6350000000000002E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -1193,93 +1321,93 @@
       <c r="C53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G53" s="5"/>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>16</v>
-      </c>
-      <c r="B54" s="2">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="4">
-        <v>0.51100000000000001</v>
+      <c r="D54" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>16</v>
-      </c>
-      <c r="B55" s="2">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="4">
-        <v>0.18338751966439401</v>
+      <c r="D55" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>16</v>
       </c>
-      <c r="B56" s="2">
-        <v>36</v>
+      <c r="B56" s="3">
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="4">
-        <v>0.20561457787100099</v>
-      </c>
+      <c r="D56" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="4">
-        <v>0.1</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="2">
-        <v>0.23530000000000001</v>
+      <c r="D58" s="4">
+        <v>3.6677503932878809E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="2">
-        <v>0.1042</v>
+      <c r="D59" s="4">
+        <v>4.1122915574200197E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1287,13 +1415,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="2">
-        <v>9.3899999999999997E-2</v>
+      <c r="D60" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1301,13 +1429,13 @@
         <v>17</v>
       </c>
       <c r="B61" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="2">
-        <v>9.3799999999999994E-2</v>
+      <c r="D61" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1315,13 +1443,13 @@
         <v>17</v>
       </c>
       <c r="B62" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="2">
-        <v>0.16950000000000001</v>
+      <c r="D62" s="4">
+        <v>6.2704979690085746E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1329,21 +1457,86 @@
         <v>17</v>
       </c>
       <c r="B63" s="2">
+        <v>17</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5.6506694749511054E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>17</v>
+      </c>
+      <c r="B64" s="2">
+        <v>18</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5.6446517225816145E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>17</v>
+      </c>
+      <c r="B65" s="2">
+        <v>20</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.10200090266285543</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>17</v>
+      </c>
+      <c r="B66" s="2">
         <v>21</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0.20330000000000001</v>
+      <c r="C66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.1223409056717316</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4511c60809de47fd61668c7a2fa421c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="113b7667aea05225525c2a1f4252ac59" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1548,27 +1741,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8BF163-7E87-4B8A-965E-CB930C72B92B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D125F7-70BC-4CD8-BA77-1F77C7034327}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1585,23 +1777,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8BF163-7E87-4B8A-965E-CB930C72B92B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404BE81A-7F2C-684D-BD0B-493C01413E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB9E2DA-CA94-D048-A400-D663AF74C7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="1600" windowWidth="15480" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1880" yWindow="-20700" windowWidth="15820" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -618,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>7.9355555555555554E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -647,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>3.1755555555555558E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -662,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4">
-        <v>1.5866666666666668E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>4.4444444444444453E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -692,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>2.8577777777777778E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -707,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="4">
-        <v>0.16683333333333333</v>
+        <v>0.26693333333333336</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="4">
-        <v>3.3444444444444443E-2</v>
+        <v>0.15351111111111099</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -752,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="4">
-        <v>0.14033333333333334</v>
+        <v>0.22453333333333336</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="4">
-        <v>2.0611111111111111E-2</v>
+        <v>3.2977777777777779E-2</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -782,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="4">
-        <v>1.8388888888888889E-2</v>
+        <v>2.9422222222222225E-2</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="4">
-        <v>3.0777777777777775E-2</v>
+        <v>4.9244444444444445E-2</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -812,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="4">
-        <v>2.0055555555555556E-2</v>
+        <v>3.2088888888888889E-2</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -827,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="4">
-        <v>3.177777777777778E-2</v>
+        <v>5.0844444444444449E-2</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="4">
-        <v>3.7777777777777778E-2</v>
+        <v>6.0444444444444446E-2</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="4">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="4">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="4">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -914,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="4">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="4">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -956,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="4">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="4">
-        <v>5.2839999999999998E-2</v>
+        <v>0.19247</v>
       </c>
       <c r="F31" s="7"/>
     </row>
@@ -1027,8 +1027,9 @@
         <v>4</v>
       </c>
       <c r="D32" s="4">
-        <v>6.4080000000000012E-2</v>
-      </c>
+        <v>0.11214000000000002</v>
+      </c>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -1041,8 +1042,9 @@
         <v>4</v>
       </c>
       <c r="D33" s="4">
-        <v>4.6679999999999999E-2</v>
-      </c>
+        <v>8.1689999999999985E-2</v>
+      </c>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -1055,8 +1057,9 @@
         <v>4</v>
       </c>
       <c r="D34" s="4">
-        <v>8.3240000000000008E-2</v>
-      </c>
+        <v>0.14566999999999999</v>
+      </c>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
@@ -1069,8 +1072,9 @@
         <v>4</v>
       </c>
       <c r="D35" s="4">
-        <v>1.6279999999999999E-2</v>
-      </c>
+        <v>2.8489999999999994E-2</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -1083,8 +1087,9 @@
         <v>4</v>
       </c>
       <c r="D36" s="4">
-        <v>8.1880000000000008E-2</v>
-      </c>
+        <v>0.14329</v>
+      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -1097,8 +1102,9 @@
         <v>4</v>
       </c>
       <c r="D37" s="4">
-        <v>4.1599999999999996E-3</v>
-      </c>
+        <v>5.7279999999999998E-2</v>
+      </c>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
@@ -1111,8 +1117,9 @@
         <v>4</v>
       </c>
       <c r="D38" s="4">
-        <v>4.5839999999999999E-2</v>
-      </c>
+        <v>0.13022</v>
+      </c>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
@@ -1125,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>8.7500000000000008E-3</v>
       </c>
       <c r="F39" s="7"/>
     </row>
@@ -1168,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="4">
-        <v>0.20896000000000001</v>
+        <v>5.8959999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1182,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="4">
-        <v>0.36776000000000003</v>
+        <v>0.51776</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1238,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1252,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="4">
-        <v>0.13059999999999999</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1266,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="4">
-        <v>0.22985</v>
+        <v>0.27984999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1280,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="4">
-        <v>3.3450000000000001E-2</v>
+        <v>8.3449999999999996E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1517,6 +1524,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
@@ -1525,15 +1541,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1742,20 +1749,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8BF163-7E87-4B8A-965E-CB930C72B92B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
     <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/PycharmProjects/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB9E2DA-CA94-D048-A400-D663AF74C7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F58EF3-BFEE-9840-BB21-381376048B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1880" yWindow="-20700" windowWidth="15820" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="-28300" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="5">
   <si>
     <t>ID_Activity</t>
   </si>
@@ -242,8 +242,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DEDA1C4-9DD0-5445-B0A4-9BFEFCA653EF}" name="Table1" displayName="Table1" ref="A1:D66" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D66" xr:uid="{5DEDA1C4-9DD0-5445-B0A4-9BFEFCA653EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DEDA1C4-9DD0-5445-B0A4-9BFEFCA653EF}" name="Table1" displayName="Table1" ref="A1:D58" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D58" xr:uid="{5DEDA1C4-9DD0-5445-B0A4-9BFEFCA653EF}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D13772B6-3362-0E4E-85D9-C4A4391AA10A}" name="ID_Activity" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A6DBB581-D6B6-FE40-937D-2BF0BA88D4B1}" name="ID_Technology" dataDxfId="2"/>
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -612,27 +612,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>0.1</v>
-      </c>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>0.3</v>
+        <v>0.11111111111111112</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -641,13 +642,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1</v>
+        <v>0.11111111111111112</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -656,13 +657,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4">
-        <v>0.1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -671,43 +672,43 @@
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>0.29659259259259263</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4">
-        <v>0.1</v>
+        <v>0.17056790123456775</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -716,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4">
-        <v>0.26693333333333336</v>
+        <v>0.2494814814814815</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -731,13 +732,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="4">
-        <v>0.15351111111111099</v>
+        <v>3.6641975308641973E-2</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -746,13 +747,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4">
-        <v>0.22453333333333336</v>
+        <v>3.2691358024691357E-2</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -761,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4">
-        <v>3.2977777777777779E-2</v>
+        <v>5.4716049382716049E-2</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -776,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="4">
-        <v>2.9422222222222225E-2</v>
+        <v>3.5654320987654323E-2</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -791,13 +792,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="4">
-        <v>4.9244444444444445E-2</v>
+        <v>5.649382716049383E-2</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -806,353 +807,367 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="4">
-        <v>3.2088888888888889E-2</v>
+        <v>6.7160493827160495E-2</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="4">
-        <v>5.0844444444444449E-2</v>
+        <v>0.4</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="4">
-        <v>6.0444444444444446E-2</v>
+        <v>0.6</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="4">
-        <v>0.2</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="4">
-        <v>0.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="4">
-        <v>0.5</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="4">
-        <v>0.3</v>
-      </c>
+        <v>0.21361820199778001</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="4">
-        <v>0.7</v>
-      </c>
+        <v>0.124461709211987</v>
+      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="4">
-        <v>0.1</v>
-      </c>
+        <v>9.0665926748057679E-2</v>
+      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="4">
-        <v>0.8</v>
-      </c>
+        <v>0.16167591564927855</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="4">
-        <v>0.1</v>
-      </c>
+        <v>3.1620421753607089E-2</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>9</v>
       </c>
       <c r="B30" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.159034406215316</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="4">
-        <v>0.19247</v>
-      </c>
-      <c r="F31" s="7"/>
+        <v>6.3573806881243047E-2</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="4">
-        <v>0.11214000000000002</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.145528301886792</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>9</v>
       </c>
       <c r="B33" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="4">
-        <v>8.1689999999999985E-2</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>9.7114317425083235E-3</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>9</v>
-      </c>
-      <c r="B34" s="2">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.24444444444444438</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.41111111111111109</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5.5555555555555559E-2</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>11</v>
+      </c>
+      <c r="B39" s="2">
         <v>5</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.14566999999999999</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>11</v>
+      </c>
+      <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2.8489999999999994E-2</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>9</v>
-      </c>
-      <c r="B36" s="2">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.14329</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>9</v>
-      </c>
-      <c r="B37" s="2">
-        <v>8</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5.7279999999999998E-2</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>9</v>
-      </c>
-      <c r="B38" s="2">
-        <v>9</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.13022</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>9</v>
-      </c>
-      <c r="B39" s="2">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="4">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>10</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="D40" s="4">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -1161,12 +1176,14 @@
         <v>4</v>
       </c>
       <c r="D41" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
@@ -1175,12 +1192,13 @@
         <v>4</v>
       </c>
       <c r="D42" s="4">
-        <v>5.8959999999999999E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.24444444444444438</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
@@ -1189,12 +1207,13 @@
         <v>4</v>
       </c>
       <c r="D43" s="4">
-        <v>0.51776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.41111111111111109</v>
+      </c>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="2">
         <v>4</v>
@@ -1203,12 +1222,13 @@
         <v>4</v>
       </c>
       <c r="D44" s="4">
-        <v>5.3520000000000005E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>5.5555555555555559E-2</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" s="2">
         <v>5</v>
@@ -1217,12 +1237,13 @@
         <v>4</v>
       </c>
       <c r="D45" s="4">
-        <v>9.5600000000000004E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2">
         <v>6</v>
@@ -1231,289 +1252,235 @@
         <v>4</v>
       </c>
       <c r="D46" s="4">
-        <v>7.4160000000000004E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>12</v>
-      </c>
-      <c r="B47" s="2">
+        <v>13</v>
+      </c>
+      <c r="B47" s="3">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>12</v>
-      </c>
-      <c r="B48" s="2">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="4">
-        <v>0.2306</v>
-      </c>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>12</v>
-      </c>
-      <c r="B49" s="2">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="4">
-        <v>0.27984999999999999</v>
-      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="4">
-        <v>8.3449999999999996E-2</v>
-      </c>
+        <v>0.46241872444730292</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B51" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="4">
-        <v>5.9749999999999998E-2</v>
-      </c>
+        <v>0.34690222387026892</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="4">
-        <v>4.6350000000000002E-2</v>
-      </c>
+        <v>0.1906790516824281</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>13</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B53" s="2">
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
+      <c r="D53" s="4">
+        <v>0.41666666666666657</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
+        <v>17</v>
+      </c>
+      <c r="B54" s="2">
         <v>14</v>
       </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
+      <c r="D54" s="4">
+        <v>0.1148680273473412</v>
+      </c>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>15</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B55" s="2">
+        <v>17</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
+      <c r="D55" s="4">
+        <v>7.8481520485432013E-2</v>
+      </c>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>16</v>
-      </c>
-      <c r="B56" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B56" s="2">
+        <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="G56" s="5"/>
+      <c r="D56" s="4">
+        <v>7.8397940591411308E-2</v>
+      </c>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B57" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="4">
-        <v>0.1022</v>
-      </c>
+        <v>0.14166792036507697</v>
+      </c>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B58" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="4">
-        <v>3.6677503932878809E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>16</v>
-      </c>
-      <c r="B59" s="2">
-        <v>34</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="4">
-        <v>4.1122915574200197E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>17</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>17</v>
-      </c>
-      <c r="B61" s="2">
-        <v>5</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>17</v>
-      </c>
-      <c r="B62" s="2">
-        <v>14</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="4">
-        <v>6.2704979690085746E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>17</v>
-      </c>
-      <c r="B63" s="2">
-        <v>17</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="4">
-        <v>5.6506694749511054E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>17</v>
-      </c>
-      <c r="B64" s="2">
-        <v>18</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="4">
-        <v>5.6446517225816145E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>17</v>
-      </c>
-      <c r="B65" s="2">
-        <v>20</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0.10200090266285543</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>17</v>
-      </c>
-      <c r="B66" s="2">
-        <v>21</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="4">
-        <v>0.1223409056717316</v>
-      </c>
+        <v>0.16991792454407165</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1524,15 +1491,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
@@ -1543,7 +1501,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4511c60809de47fd61668c7a2fa421c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="113b7667aea05225525c2a1f4252ac59" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1748,15 +1706,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8BF163-7E87-4B8A-965E-CB930C72B92B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1767,7 +1726,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D125F7-70BC-4CD8-BA77-1F77C7034327}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1784,4 +1743,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_TriggerProbability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/PycharmProjects/FLEX/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rickm\Documents\Git\Flex\data\input_behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F58EF3-BFEE-9840-BB21-381376048B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92776540-892C-4539-8034-E7EFC861B303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="-28300" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -243,7 +243,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DEDA1C4-9DD0-5445-B0A4-9BFEFCA653EF}" name="Table1" displayName="Table1" ref="A1:D58" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D58" xr:uid="{5DEDA1C4-9DD0-5445-B0A4-9BFEFCA653EF}"/>
+  <autoFilter ref="A1:D58" xr:uid="{5DEDA1C4-9DD0-5445-B0A4-9BFEFCA653EF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D13772B6-3362-0E4E-85D9-C4A4391AA10A}" name="ID_Activity" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A6DBB581-D6B6-FE40-937D-2BF0BA88D4B1}" name="ID_Technology" dataDxfId="2"/>
@@ -255,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,19 +559,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -593,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -607,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -622,7 +628,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -637,7 +643,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -652,7 +658,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -667,7 +673,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -682,7 +688,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -697,7 +703,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -712,7 +718,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -727,7 +733,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -742,7 +748,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -757,7 +763,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -772,7 +778,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -787,7 +793,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -802,7 +808,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -817,7 +823,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -832,7 +838,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -847,7 +853,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -858,11 +864,11 @@
         <v>4</v>
       </c>
       <c r="D20" s="4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -873,11 +879,11 @@
         <v>4</v>
       </c>
       <c r="D21" s="4">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -892,7 +898,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>8</v>
       </c>
@@ -907,7 +913,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -922,7 +928,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>9</v>
       </c>
@@ -937,7 +943,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -952,7 +958,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>9</v>
       </c>
@@ -967,7 +973,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>9</v>
       </c>
@@ -982,7 +988,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -997,7 +1003,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -1012,7 +1018,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -1027,7 +1033,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -1042,7 +1048,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>9</v>
       </c>
@@ -1057,7 +1063,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -1072,7 +1078,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>11</v>
       </c>
@@ -1083,12 +1089,12 @@
         <v>4</v>
       </c>
       <c r="D35" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>11</v>
       </c>
@@ -1099,13 +1105,13 @@
         <v>4</v>
       </c>
       <c r="D36" s="4">
-        <v>0.24444444444444438</v>
+        <v>0.41111111111111098</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>11</v>
       </c>
@@ -1116,11 +1122,11 @@
         <v>4</v>
       </c>
       <c r="D37" s="4">
-        <v>0.41111111111111109</v>
+        <v>0.24444444444444399</v>
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>11</v>
       </c>
@@ -1135,7 +1141,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>11</v>
       </c>
@@ -1150,7 +1156,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>11</v>
       </c>
@@ -1165,7 +1171,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>12</v>
       </c>
@@ -1181,7 +1187,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>12</v>
       </c>
@@ -1192,11 +1198,11 @@
         <v>4</v>
       </c>
       <c r="D42" s="4">
-        <v>0.24444444444444438</v>
+        <v>0.24444444444444399</v>
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>12</v>
       </c>
@@ -1211,7 +1217,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>12</v>
       </c>
@@ -1226,7 +1232,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>12</v>
       </c>
@@ -1241,7 +1247,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>12</v>
       </c>
@@ -1256,7 +1262,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>13</v>
       </c>
@@ -1271,7 +1277,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>14</v>
       </c>
@@ -1286,7 +1292,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>15</v>
       </c>
@@ -1301,7 +1307,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>16</v>
       </c>
@@ -1312,12 +1318,12 @@
         <v>4</v>
       </c>
       <c r="D50" s="4">
-        <v>0.46241872444730292</v>
+        <v>0.46241872444730298</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>16</v>
       </c>
@@ -1328,12 +1334,12 @@
         <v>4</v>
       </c>
       <c r="D51" s="4">
-        <v>0.34690222387026892</v>
+        <v>0.34690222387026898</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>16</v>
       </c>
@@ -1344,12 +1350,12 @@
         <v>4</v>
       </c>
       <c r="D52" s="4">
-        <v>0.1906790516824281</v>
+        <v>0.19067905168242799</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>17</v>
       </c>
@@ -1365,7 +1371,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>17</v>
       </c>
@@ -1380,7 +1386,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>17</v>
       </c>
@@ -1395,7 +1401,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>17</v>
       </c>
@@ -1410,7 +1416,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>17</v>
       </c>
@@ -1425,7 +1431,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>17</v>
       </c>
@@ -1440,46 +1446,46 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F72" s="7"/>
     </row>
   </sheetData>
@@ -1502,6 +1508,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4511c60809de47fd61668c7a2fa421c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="113b7667aea05225525c2a1f4252ac59" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1706,15 +1721,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8BF163-7E87-4B8A-965E-CB930C72B92B}">
   <ds:schemaRefs>
@@ -1727,6 +1733,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D125F7-70BC-4CD8-BA77-1F77C7034327}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1743,12 +1757,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD38B489-F981-428C-BF72-292671E2847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>